--- a/src/assets/promotion.xlsx
+++ b/src/assets/promotion.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\PhanySir\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\PhanySir\ClientApp\MarsPerfectStore\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="171">
   <si>
     <t>Chain</t>
   </si>
@@ -53,59 +53,497 @@
     <t>Reliance Retail</t>
   </si>
   <si>
-    <t>Snickers Bar 50 GM</t>
-  </si>
-  <si>
-    <t>20% Off+ Rs.2 PPI</t>
-  </si>
-  <si>
-    <t>ALL</t>
-  </si>
-  <si>
-    <t>M&amp;MS CHOC 16x100 g PP</t>
-  </si>
-  <si>
-    <t>25% Off</t>
-  </si>
-  <si>
-    <t>SNICKERS PEANUT T3 MULTIPACK 168 g PP</t>
-  </si>
-  <si>
-    <t>On Invoice margin 10.07% - 10% On POS Promotion</t>
-  </si>
-  <si>
-    <t>SNICKERS PEANUT BAR MULTIPACK 240 g PP</t>
-  </si>
-  <si>
-    <t>On Invoice margin 13.05% - 7% On POS Promotion</t>
-  </si>
-  <si>
-    <t>SNICKERS BUTTERSCOTCH BAR 40 g</t>
-  </si>
-  <si>
-    <t>30% (On Invoice 10%)</t>
-  </si>
-  <si>
-    <t>Star Bazar</t>
-  </si>
-  <si>
-    <t>Snicker Chocolate Miniatures Bag 150g</t>
-  </si>
-  <si>
-    <t>15% Off - B2G1 to operate funded by Star Bazar</t>
+    <t>Snickers Bar 45 gm</t>
+  </si>
+  <si>
+    <t>B1 GET RS.4 OFF</t>
+  </si>
+  <si>
+    <t>SNICKERS Miniatures 150 G</t>
+  </si>
+  <si>
+    <t>B1 GET RS.15 OFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL </t>
+  </si>
+  <si>
+    <t>Bounty Miniatures 150 G</t>
+  </si>
+  <si>
+    <t>B1 GET RS.5 OFF</t>
+  </si>
+  <si>
+    <t>SNICKERS T3 MULTIPACK(168G)</t>
+  </si>
+  <si>
+    <t>B1 GET RS.15 OFF OFF</t>
+  </si>
+  <si>
+    <t>Snickers Bar multipack 240 gm</t>
+  </si>
+  <si>
+    <t>B1 GET RS.32 OFF OFF</t>
+  </si>
+  <si>
+    <t>Snickers Fruit &amp; Nut Bar</t>
+  </si>
+  <si>
+    <t>B2G1 DURING GOLDEN EVENT</t>
+  </si>
+  <si>
+    <t>M&amp;Ms Chocolate Rs.100</t>
+  </si>
+  <si>
+    <t>SKITTLES ORIGINAL FRUITS POUCH Rs.100</t>
+  </si>
+  <si>
+    <t>SKITTLES WILDBERRY POUCH Rs.100</t>
+  </si>
+  <si>
+    <t>D-Mart</t>
+  </si>
+  <si>
+    <t>B1 GET RS.3 OFF</t>
+  </si>
+  <si>
+    <t>B1 GET RS.10 OFF</t>
+  </si>
+  <si>
+    <t>B1 GET RS.20 OFF</t>
+  </si>
+  <si>
+    <t>Galaxy HRC Milk 30 Gm</t>
+  </si>
+  <si>
+    <t>Galaxy Milk 56 Gm</t>
+  </si>
+  <si>
+    <t>Star Bazaar</t>
+  </si>
+  <si>
+    <t>B23G1 OFF</t>
+  </si>
+  <si>
+    <t>B2G1 DURING REPUBLIC DAY EVENT EVENT</t>
+  </si>
+  <si>
+    <t>CP Wholesale</t>
+  </si>
+  <si>
+    <t>SNICKER SNACK 32 U X MRP 20</t>
+  </si>
+  <si>
+    <t>Buy 1 @ Rs 531.4 off ,Buy 2 @ Rs. 505</t>
+  </si>
+  <si>
+    <t>Snickers Value pack</t>
+  </si>
+  <si>
+    <t>Buy 1@ Rs 92.49 off , Buy 8 @ Rs 89.49 off</t>
+  </si>
+  <si>
+    <t>M&amp;M CHOCOLATE 75 G</t>
+  </si>
+  <si>
+    <t>Buy 1 @ Rs 80</t>
+  </si>
+  <si>
+    <t>SNICKERS PEANUT T3 MULTIPACK FAMILY TREAT 168 G</t>
+  </si>
+  <si>
+    <t>Buy 1 @ Rs 110, Buy 3 @ Rs 100 each</t>
+  </si>
+  <si>
+    <t>SKITTLES FRUIT 100 G</t>
+  </si>
+  <si>
+    <t>Snickers Pk40 MRP10</t>
+  </si>
+  <si>
+    <t>Buy 1 @ 132</t>
+  </si>
+  <si>
+    <t>Article Code Awaited</t>
+  </si>
+  <si>
+    <t>Orbit Spearmint</t>
+  </si>
+  <si>
+    <t>Orbit Fruit</t>
+  </si>
+  <si>
+    <t>Galaxy 19.1 g</t>
+  </si>
+  <si>
+    <t>Buy 1 @ Rs 381</t>
+  </si>
+  <si>
+    <t>GPI</t>
+  </si>
+  <si>
+    <t>BOUNTY MINIATURES 150G++</t>
+  </si>
+  <si>
+    <t>Buy 1 Get Rs 10% off</t>
+  </si>
+  <si>
+    <t>MARS MINIATURES 150G++</t>
+  </si>
+  <si>
+    <t>SNICKERS MINIATURES CHOCOLATE 150G++</t>
+  </si>
+  <si>
+    <t>M&amp;Ms CHOCOLATE DOMESTIC 100G</t>
+  </si>
+  <si>
+    <t>Spencers</t>
+  </si>
+  <si>
+    <t>SNICKERS MINIATURES 150g</t>
+  </si>
+  <si>
+    <t>Buy 1 Get Rs 15 Off</t>
+  </si>
+  <si>
+    <t>GALAXY MILK 30g</t>
+  </si>
+  <si>
+    <t>Buy 1 Get 10% off</t>
+  </si>
+  <si>
+    <t>GALAXY MILK 56GM</t>
+  </si>
+  <si>
+    <t>GALAXY MILK 90GM</t>
+  </si>
+  <si>
+    <t>Snickers Bar Pk6</t>
+  </si>
+  <si>
+    <t>Buy 1 get 15% off</t>
+  </si>
+  <si>
+    <t>Snickers Stick PK12</t>
+  </si>
+  <si>
+    <t>Buy 1 get 10% off</t>
+  </si>
+  <si>
+    <t>M&amp;M Choc Rs 100</t>
   </si>
   <si>
     <t>Bounty Chocolate Miniatures Bag 150g</t>
   </si>
   <si>
-    <t>Mars  Miniatures Bag 150g</t>
+    <t>Mars  Miniatures Bag 150g</t>
+  </si>
+  <si>
+    <t>Skittles Fruit 100g</t>
+  </si>
+  <si>
+    <t>Skittles Wildberry 100g</t>
+  </si>
+  <si>
+    <t>Walmart Best Price</t>
+  </si>
+  <si>
+    <t>Buy 1 get Rs 40 off</t>
+  </si>
+  <si>
+    <t>ORBIT SPEARMINT 32 U X MRP 5</t>
+  </si>
+  <si>
+    <t>Buy 1 get @Rs.132</t>
+  </si>
+  <si>
+    <t>ORBIT FRUIT 32 U X MRP 5</t>
+  </si>
+  <si>
+    <t>ORBIT WHITE 32 U X MRP 5</t>
+  </si>
+  <si>
+    <t>ORBIT Raw Mango 32 U X MRP 5</t>
+  </si>
+  <si>
+    <t>WRIGLEY ORBIT  LIME 32 U X MRP 5</t>
+  </si>
+  <si>
+    <t>Snickes Value pack</t>
+  </si>
+  <si>
+    <t>Buy 1 @Rs.91.49 -Buy 8 @Rs.86.49</t>
+  </si>
+  <si>
+    <t>Buy 1 @ Rs. 521- Buy 2 @ Rs.515</t>
+  </si>
+  <si>
+    <t>Buy 1 get @Rs.185.95</t>
+  </si>
+  <si>
+    <t>Buy 1 get @Rs.115.7</t>
+  </si>
+  <si>
+    <t>Snickers T3</t>
+  </si>
+  <si>
+    <t>Buy 1 @ Rs.350</t>
+  </si>
+  <si>
+    <t>Metro</t>
+  </si>
+  <si>
+    <t>Snickers Bar Pk of 6 @ 250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B2G1 </t>
+  </si>
+  <si>
+    <t>Snickers T3 Pack of 12 @ 150</t>
+  </si>
+  <si>
+    <t>SNICKERS BUTTERSCOTCH 40g</t>
+  </si>
+  <si>
+    <t>Buy 1 @ 39.2</t>
+  </si>
+  <si>
+    <t>SNICKERS ALMOND T3 14g PK32</t>
+  </si>
+  <si>
+    <t>Buy 1 @ 388.8</t>
+  </si>
+  <si>
+    <t>BOUNTY VALUE PACK 171 gm</t>
+  </si>
+  <si>
+    <t>Buy 1 @ 109.3</t>
+  </si>
+  <si>
+    <t>MARS BOUNTY T2 28.5g PK15</t>
+  </si>
+  <si>
+    <t>Buy 1 @ 249</t>
+  </si>
+  <si>
+    <t>GALAXY MILK HRC 56g</t>
+  </si>
+  <si>
+    <t>Buy 1 @ 54.9</t>
+  </si>
+  <si>
+    <t>Galaxy Smooth Milk 30g</t>
+  </si>
+  <si>
+    <t>Buy 1 @ 31.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buy 1 @ 157 </t>
+  </si>
+  <si>
+    <t>ORBIT RAW MANGO 4.4g PK32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buy 1 @ 127.9 </t>
+  </si>
+  <si>
+    <t>WRIGLEY ORBIT FRUIT 140g 4S PK</t>
+  </si>
+  <si>
+    <t>WRIGLEY ORBIT SPRMNT140g4SPK32</t>
+  </si>
+  <si>
+    <t>SKITTLES FRUIT 9g PK20</t>
+  </si>
+  <si>
+    <t>Buy 1 @ 159.9</t>
+  </si>
+  <si>
+    <t>SKITTLES WILD BERRY 9g PK20</t>
+  </si>
+  <si>
+    <t>Buy 1 @ 115.4</t>
+  </si>
+  <si>
+    <t>Buy 1 @ 183.9</t>
+  </si>
+  <si>
+    <t>WRIGLEY PIMPOM LOLLIPOP 630g</t>
+  </si>
+  <si>
+    <t>Buy 1 @ 215.9</t>
+  </si>
+  <si>
+    <t>Bounty Miniatures Connect Big Banded Pack</t>
+  </si>
+  <si>
+    <t>Buy 1 @ 219.5</t>
+  </si>
+  <si>
+    <t>Snickers Miniatures Connect Big Banded Pack</t>
+  </si>
+  <si>
+    <t>SNICKERS CHOCOLATE 45g PK3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Buy 1 @ 88.5</t>
+  </si>
+  <si>
+    <t>SNICKERS SNACK SIZE 22g PK32</t>
+  </si>
+  <si>
+    <t>Buy 1 @ 528</t>
+  </si>
+  <si>
+    <t>Spar</t>
+  </si>
+  <si>
+    <t>SNICKERS MINIATURES 150G</t>
+  </si>
+  <si>
+    <t>Buy 1 @ Rs.15 Off</t>
+  </si>
+  <si>
+    <t>BOUNTY MINIATURES150G</t>
+  </si>
+  <si>
+    <t>SNICKERS CHOCOLATE BAR 45G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   40.00 </t>
+  </si>
+  <si>
+    <t>Buy 1 @ Rs.4 Off</t>
+  </si>
+  <si>
+    <t>BOUNTY CHOCOLATE BAR 57G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   50.00 </t>
+  </si>
+  <si>
+    <t>Buy 1 @ Rs.5 Off</t>
+  </si>
+  <si>
+    <t>SNICKERS ALMOND CHOCOLATE BAR 45G</t>
+  </si>
+  <si>
+    <t>Lulu</t>
+  </si>
+  <si>
+    <t>Bounty Value Pack 57g*3</t>
+  </si>
+  <si>
+    <t>Buy 1 @ Rs. 20.25 Off</t>
+  </si>
+  <si>
+    <t>Snickers Almond Bar 45g</t>
+  </si>
+  <si>
+    <t>Buy 1 @ Rs. 5 Off</t>
+  </si>
+  <si>
+    <t>Skittles Fruit Stde Pouch 100g</t>
+  </si>
+  <si>
+    <t>Buy 1 @ Rs. 15 Off</t>
+  </si>
+  <si>
+    <t>S/Wildberry Stde Pouch 100g</t>
+  </si>
+  <si>
+    <t>M&amp;Ms Chocolate Stde Pouch 75g</t>
+  </si>
+  <si>
+    <t>Buy 1 @ Rs. 10 Off</t>
+  </si>
+  <si>
+    <t>Snickers Chocolate Bar 45gm</t>
+  </si>
+  <si>
+    <t>Bounty Miniatures 150gm</t>
+  </si>
+  <si>
+    <t>Buy 1 @ Rs. 22.35 Off</t>
+  </si>
+  <si>
+    <t>Snickers LE Butterscotch Bar 40g</t>
+  </si>
+  <si>
+    <t>Snickers Peanut T3 14gmx12s</t>
+  </si>
+  <si>
+    <t>Snickers Peanut Bar 40gmx6s</t>
+  </si>
+  <si>
+    <t>ABRL</t>
+  </si>
+  <si>
+    <t>Mars Snickers T3 Family Treats 168 gm Pouch</t>
+  </si>
+  <si>
+    <t>Rs 30 off</t>
+  </si>
+  <si>
+    <t>Mars Snickers Bar Home Pack 240 gm Pouch</t>
+  </si>
+  <si>
+    <t>40% off</t>
+  </si>
+  <si>
+    <t>Skittles Candy Wildberry 100 gm Pouch</t>
+  </si>
+  <si>
+    <t>20% off</t>
+  </si>
+  <si>
+    <t>Skittles Candy Fruit 100 gm Pouch</t>
+  </si>
+  <si>
+    <t>10% off</t>
+  </si>
+  <si>
+    <t>Snicker Chocolate Bar 45 Gm</t>
+  </si>
+  <si>
+    <t>26/12/2020</t>
+  </si>
+  <si>
+    <t>20/01/2021</t>
+  </si>
+  <si>
+    <t>21/12/2020</t>
+  </si>
+  <si>
+    <t>25/01/2021</t>
+  </si>
+  <si>
+    <t>26/01/2021</t>
+  </si>
+  <si>
+    <t>31/01/2021</t>
+  </si>
+  <si>
+    <t>01/01/2021</t>
+  </si>
+  <si>
+    <t>SNICKERS B SCOTCH BAR(40G)</t>
+  </si>
+  <si>
+    <t>M&amp;M S CHOCOLATE 9g PK20</t>
+  </si>
+  <si>
+    <t>WRIGLEY  S SOLANO 150PCS 450g</t>
+  </si>
+  <si>
+    <t>BOOMER STRAWBERRY 230 S</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +565,20 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -136,7 +588,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -144,22 +596,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,254 +917,2778 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="5" max="5" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="8" customWidth="1"/>
     <col min="8" max="8" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="4">
         <v>490000493</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="3">
         <v>40</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2">
-        <v>43840</v>
-      </c>
-      <c r="G2" s="2">
-        <v>44135</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="F2" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4">
+        <v>490755227</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="D3" s="3">
+        <v>149</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1">
-        <v>491348876</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B4" s="4">
+        <v>490755229</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3">
+        <v>149</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1">
+      <c r="F4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4">
+        <v>491695804</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" s="3">
+        <v>50</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4">
+        <v>491695619</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="3">
+        <v>149</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4">
+        <v>491695620</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3">
+        <v>249</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4">
+        <v>10193767</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="3">
+        <v>50</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
+        <v>490755227</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="5">
+        <v>149</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5">
+        <v>490755229</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="5">
+        <v>149</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5">
+        <v>491695619</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="5">
+        <v>149</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5">
+        <v>491695799</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="5">
         <v>100</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2">
-        <v>43840</v>
-      </c>
-      <c r="G3" s="2">
-        <v>44135</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="E12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="5">
+        <v>491695802</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="5">
+        <v>100</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="5">
+        <v>491695803</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="5">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="5">
+        <v>400020753</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="5">
+        <v>40</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="5">
+        <v>400030107</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="5">
+        <v>149</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="5">
+        <v>400030103</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="5">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="5">
+        <v>400030109</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="5">
+        <v>100</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="5">
+        <v>400030106</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="5">
+        <v>249</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="5">
+        <v>400029441</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="5">
+        <v>40</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="5">
+        <v>400029442</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="5">
+        <v>70</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="5">
+        <v>1144123</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1">
-        <v>491695619</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D22" s="5">
+        <v>149</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="5">
+        <v>1144124</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D23" s="5">
         <v>149</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2">
-        <v>43840</v>
-      </c>
-      <c r="G4" s="2">
-        <v>44135</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="E23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="5">
+        <v>1386374</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="5">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="5">
+        <v>1144123</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1">
-        <v>491695620</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="D25" s="5">
+        <v>149</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="5">
+        <v>1144124</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="5">
+        <v>149</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="5">
+        <v>1386374</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="5">
+        <v>100</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="5">
+        <v>100014565</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="5">
+        <v>640</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="5">
+        <v>103685268</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="5">
+        <v>110</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="5">
+        <v>104460615</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="5">
+        <v>100</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="5">
+        <v>104460618</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="5">
+        <v>149</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="5">
+        <v>104460806</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="5">
+        <v>100</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="5">
+        <v>104464506</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="5">
+        <v>400</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="5">
+        <v>160</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="5">
+        <v>160</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="5">
+        <v>480</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="5">
+        <v>200348</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="5">
+        <v>149</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="5">
+        <v>200458</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="5">
+        <v>149</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="5">
+        <v>200511</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="5">
+        <v>149</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="5">
+        <v>214890</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" s="5">
+        <v>100</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="5">
+        <v>1191892</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="5">
+        <v>149</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="5">
+        <v>1241343</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" s="5">
+        <v>40</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="5">
+        <v>1372864</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" s="5">
+        <v>70</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="5">
+        <v>1372865</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" s="5">
+        <v>120</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="5">
+        <v>1336562</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" s="5">
+        <v>250</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="5">
+        <v>1336561</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="5">
+        <v>150</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="5">
+        <v>1309623</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" s="5">
+        <v>100</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" s="5">
+        <v>1189585</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" s="5">
+        <v>149</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" s="5">
+        <v>1191887</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49" s="5">
+        <v>149</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" s="5">
+        <v>1332424</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" s="5">
+        <v>100</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" s="5">
+        <v>1332425</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D51" s="5">
+        <v>100</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" s="5">
+        <v>39138</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D52" s="5">
+        <v>480</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" s="5">
+        <v>10211</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53" s="5">
+        <v>160</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B54" s="5">
+        <v>10212</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D54" s="5">
+        <v>160</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B55" s="5">
+        <v>10213</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D55" s="5">
+        <v>160</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56" s="5">
+        <v>41824</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D56" s="5">
+        <v>160</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B57" s="5">
+        <v>12300</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D57" s="5">
+        <v>160</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B58" s="5">
+        <v>10870</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D58" s="5">
+        <v>110</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59" s="5">
+        <v>13257</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="5">
+        <v>640</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" s="5">
+        <v>40990</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D60" s="5">
+        <v>250</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B61" s="5">
+        <v>40717</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D61" s="5">
+        <v>150</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B62" s="5">
+        <v>22405</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D62" s="5">
+        <v>320</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B63" s="5">
+        <v>415075</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D63" s="5">
         <v>249</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="2">
-        <v>43840</v>
-      </c>
-      <c r="G5" s="2">
-        <v>44135</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1">
-        <v>491695804</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="E63" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B64" s="5">
+        <v>415074</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D64" s="5">
+        <v>149</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B65" s="5">
+        <v>417706</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D65" s="5">
         <v>50</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="2">
-        <v>43840</v>
-      </c>
-      <c r="G6" s="2">
-        <v>44135</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1144123</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="E65" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B66" s="5">
+        <v>406075</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D66" s="5">
+        <v>480</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B67" s="5">
+        <v>396121</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D67" s="5">
+        <v>135</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B68" s="5">
+        <v>405862</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D68" s="5">
+        <v>300</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B69" s="5">
+        <v>410645</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D69" s="5">
+        <v>70</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B70" s="5">
+        <v>410719</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D70" s="5">
+        <v>40</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B71" s="5">
+        <v>416648</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D71" s="5">
+        <v>200</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B72" s="5">
+        <v>417702</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D72" s="5">
+        <v>160</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B73" s="5">
+        <v>382703</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D73" s="5">
+        <v>160</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B74" s="5">
+        <v>382706</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D74" s="5">
+        <v>160</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B75" s="5">
+        <v>416662</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D75" s="5">
+        <v>200</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B76" s="5">
+        <v>416657</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D76" s="5">
+        <v>200</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B77" s="5">
+        <v>414117</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D77" s="5">
+        <v>150</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B78" s="5">
+        <v>356518</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D78" s="5">
+        <v>230</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B79" s="5">
+        <v>336321</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D79" s="5">
+        <v>300</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B80" s="5">
+        <v>409778</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D80" s="5">
+        <v>248</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B81" s="5">
+        <v>343929</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D81" s="5">
+        <v>248</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B82" s="5">
+        <v>335516</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D82" s="5">
+        <v>110</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83" s="5">
+        <v>322016</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D83" s="5">
+        <v>640</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B84" s="5">
+        <v>100031765</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D84" s="5">
         <v>149</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="2">
-        <v>43840</v>
-      </c>
-      <c r="G7" s="2">
-        <v>44135</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1144124</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="E84" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B85" s="5">
+        <v>100031769</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D85" s="5">
         <v>149</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="2">
-        <v>43840</v>
-      </c>
-      <c r="G8" s="2">
-        <v>44135</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1144125</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="E85" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B86" s="5">
+        <v>100032233</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B87" s="5">
+        <v>100034785</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B88" s="5">
+        <v>131530343</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B89" s="5">
+        <v>860279</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D89" s="5">
+        <v>135</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B90" s="5">
+        <v>884645</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D90" s="5">
+        <v>50</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B91" s="5">
+        <v>1036021</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D91" s="5">
+        <v>100</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B92" s="5">
+        <v>1036022</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D92" s="5">
+        <v>100</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B93" s="5">
+        <v>1036017</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D93" s="5">
+        <v>100</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B94" s="5">
+        <v>3559</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D94" s="5">
+        <v>40</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B95" s="5">
+        <v>3583</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D95" s="5">
         <v>149</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="2">
-        <v>43840</v>
-      </c>
-      <c r="G9" s="2">
-        <v>44135</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>11</v>
+      <c r="E95" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H95" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B96" s="5">
+        <v>1049541</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D96" s="5">
+        <v>50</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H96" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B97" s="5">
+        <v>1026526</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D97" s="5">
+        <v>149</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H97" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B98" s="5">
+        <v>1026527</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D98" s="5">
+        <v>249</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H98" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B99" s="5">
+        <v>101859703</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D99" s="5">
+        <v>149</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B100" s="5">
+        <v>101859703</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D100" s="5">
+        <v>149</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H100" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B101" s="5">
+        <v>101859701</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D101" s="5">
+        <v>249</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H101" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B102" s="5">
+        <v>101873194</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D102" s="5">
+        <v>100</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F102" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G102" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H102" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B103" s="5">
+        <v>101873196</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D103" s="5">
+        <v>100</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B104" s="5">
+        <v>101873194</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D104" s="5">
+        <v>100</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F104" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G104" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H104" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B105" s="5">
+        <v>101873196</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D105" s="5">
+        <v>100</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H105" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B106" s="5">
+        <v>100075632</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D106" s="5">
+        <v>40</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F106" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G106" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H106" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
